--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Bmp8a-Tgfbr2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Bmp8a-Tgfbr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,13 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Tgfbr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.32600096889487</v>
+        <v>0.2165933333333333</v>
       </c>
       <c r="H2">
-        <v>0.32600096889487</v>
+        <v>0.64978</v>
       </c>
       <c r="I2">
-        <v>0.2881680730374244</v>
+        <v>0.127917128882738</v>
       </c>
       <c r="J2">
-        <v>0.2881680730374244</v>
+        <v>0.1279171288827381</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.596951511973639</v>
+        <v>19.367679</v>
       </c>
       <c r="N2">
-        <v>8.596951511973639</v>
+        <v>58.10303699999999</v>
       </c>
       <c r="O2">
-        <v>0.06453898253178211</v>
+        <v>0.1308423210854057</v>
       </c>
       <c r="P2">
-        <v>0.06453898253178211</v>
+        <v>0.1308423210854057</v>
       </c>
       <c r="Q2">
-        <v>2.802614522445624</v>
+        <v>4.19491015354</v>
       </c>
       <c r="R2">
-        <v>2.802614522445624</v>
+        <v>37.75419138186</v>
       </c>
       <c r="S2">
-        <v>0.01859807423197965</v>
+        <v>0.01673697404959844</v>
       </c>
       <c r="T2">
-        <v>0.01859807423197965</v>
+        <v>0.01673697404959845</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.32600096889487</v>
+        <v>0.2165933333333333</v>
       </c>
       <c r="H3">
-        <v>0.32600096889487</v>
+        <v>0.64978</v>
       </c>
       <c r="I3">
-        <v>0.2881680730374244</v>
+        <v>0.127917128882738</v>
       </c>
       <c r="J3">
-        <v>0.2881680730374244</v>
+        <v>0.1279171288827381</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>26.2704820827443</v>
+        <v>26.60585</v>
       </c>
       <c r="N3">
-        <v>26.2704820827443</v>
+        <v>79.81755000000001</v>
       </c>
       <c r="O3">
-        <v>0.1972176046216286</v>
+        <v>0.1797412673170669</v>
       </c>
       <c r="P3">
-        <v>0.1972176046216286</v>
+        <v>0.1797412673170669</v>
       </c>
       <c r="Q3">
-        <v>8.564202612309964</v>
+        <v>5.762649737666668</v>
       </c>
       <c r="R3">
-        <v>8.564202612309964</v>
+        <v>51.86384763900001</v>
       </c>
       <c r="S3">
-        <v>0.05683181709287136</v>
+        <v>0.02299198685694392</v>
       </c>
       <c r="T3">
-        <v>0.05683181709287136</v>
+        <v>0.02299198685694392</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.32600096889487</v>
+        <v>0.2165933333333333</v>
       </c>
       <c r="H4">
-        <v>0.32600096889487</v>
+        <v>0.64978</v>
       </c>
       <c r="I4">
-        <v>0.2881680730374244</v>
+        <v>0.127917128882738</v>
       </c>
       <c r="J4">
-        <v>0.2881680730374244</v>
+        <v>0.1279171288827381</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.52039207512</v>
+        <v>25.27238933333333</v>
       </c>
       <c r="N4">
-        <v>23.52039207512</v>
+        <v>75.817168</v>
       </c>
       <c r="O4">
-        <v>0.1765721455056045</v>
+        <v>0.1707328007526035</v>
       </c>
       <c r="P4">
-        <v>0.1765721455056045</v>
+        <v>0.1707328007526035</v>
       </c>
       <c r="Q4">
-        <v>7.667670605276342</v>
+        <v>5.473831047004444</v>
       </c>
       <c r="R4">
-        <v>7.667670605276342</v>
+        <v>49.26447942304</v>
       </c>
       <c r="S4">
-        <v>0.05088245492243378</v>
+        <v>0.02183964967838162</v>
       </c>
       <c r="T4">
-        <v>0.05088245492243378</v>
+        <v>0.02183964967838162</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.32600096889487</v>
+        <v>0.2165933333333333</v>
       </c>
       <c r="H5">
-        <v>0.32600096889487</v>
+        <v>0.64978</v>
       </c>
       <c r="I5">
-        <v>0.2881680730374244</v>
+        <v>0.127917128882738</v>
       </c>
       <c r="J5">
-        <v>0.2881680730374244</v>
+        <v>0.1279171288827381</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>36.4379275743489</v>
+        <v>36.48521533333334</v>
       </c>
       <c r="N5">
-        <v>36.4379275743489</v>
+        <v>109.455646</v>
       </c>
       <c r="O5">
-        <v>0.2735465900836939</v>
+        <v>0.2464833426614604</v>
       </c>
       <c r="P5">
-        <v>0.2735465900836939</v>
+        <v>0.2464833426614603</v>
       </c>
       <c r="Q5">
-        <v>11.87879969375884</v>
+        <v>7.902454406431112</v>
       </c>
       <c r="R5">
-        <v>11.87879969375884</v>
+        <v>71.12208965788</v>
       </c>
       <c r="S5">
-        <v>0.0788273937503763</v>
+        <v>0.03152944151067411</v>
       </c>
       <c r="T5">
-        <v>0.0788273937503763</v>
+        <v>0.03152944151067411</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.32600096889487</v>
+        <v>0.2165933333333333</v>
       </c>
       <c r="H6">
-        <v>0.32600096889487</v>
+        <v>0.64978</v>
       </c>
       <c r="I6">
-        <v>0.2881680730374244</v>
+        <v>0.127917128882738</v>
       </c>
       <c r="J6">
-        <v>0.2881680730374244</v>
+        <v>0.1279171288827381</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.9585582898079</v>
+        <v>29.48431666666667</v>
       </c>
       <c r="N6">
-        <v>28.9585582898079</v>
+        <v>88.45295</v>
       </c>
       <c r="O6">
-        <v>0.2173975141081657</v>
+        <v>0.1991873382599836</v>
       </c>
       <c r="P6">
-        <v>0.2173975141081657</v>
+        <v>0.1991873382599836</v>
       </c>
       <c r="Q6">
-        <v>9.440518060275945</v>
+        <v>6.386106427888889</v>
       </c>
       <c r="R6">
-        <v>9.440518060275945</v>
+        <v>57.47495785100001</v>
       </c>
       <c r="S6">
-        <v>0.06264702272367641</v>
+        <v>0.02547947242001186</v>
       </c>
       <c r="T6">
-        <v>0.06264702272367641</v>
+        <v>0.02547947242001186</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.32600096889487</v>
+        <v>0.2165933333333333</v>
       </c>
       <c r="H7">
-        <v>0.32600096889487</v>
+        <v>0.64978</v>
       </c>
       <c r="I7">
-        <v>0.2881680730374244</v>
+        <v>0.127917128882738</v>
       </c>
       <c r="J7">
-        <v>0.2881680730374244</v>
+        <v>0.1279171288827381</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.421251595856051</v>
+        <v>10.80759633333333</v>
       </c>
       <c r="N7">
-        <v>9.421251595856051</v>
+        <v>32.422789</v>
       </c>
       <c r="O7">
-        <v>0.07072716314912518</v>
+        <v>0.07301292992347995</v>
       </c>
       <c r="P7">
-        <v>0.07072716314912518</v>
+        <v>0.07301292992347994</v>
       </c>
       <c r="Q7">
-        <v>3.071337148451413</v>
+        <v>2.340853315157778</v>
       </c>
       <c r="R7">
-        <v>3.071337148451413</v>
+        <v>21.06767983642</v>
       </c>
       <c r="S7">
-        <v>0.02038131031608694</v>
+        <v>0.009339604367128105</v>
       </c>
       <c r="T7">
-        <v>0.02038131031608694</v>
+        <v>0.009339604367128105</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.178818577498269</v>
+        <v>0.3534583333333334</v>
       </c>
       <c r="H8">
-        <v>0.178818577498269</v>
+        <v>1.060375</v>
       </c>
       <c r="I8">
-        <v>0.1580664164148145</v>
+        <v>0.2087477693050469</v>
       </c>
       <c r="J8">
-        <v>0.1580664164148145</v>
+        <v>0.2087477693050469</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.596951511973639</v>
+        <v>19.367679</v>
       </c>
       <c r="N8">
-        <v>8.596951511973639</v>
+        <v>58.10303699999999</v>
       </c>
       <c r="O8">
-        <v>0.06453898253178211</v>
+        <v>0.1308423210854057</v>
       </c>
       <c r="P8">
-        <v>0.06453898253178211</v>
+        <v>0.1308423210854057</v>
       </c>
       <c r="Q8">
-        <v>1.537294640192719</v>
+        <v>6.845667539875</v>
       </c>
       <c r="R8">
-        <v>1.537294640192719</v>
+        <v>61.611007858875</v>
       </c>
       <c r="S8">
-        <v>0.01020144568785711</v>
+        <v>0.02731304265727315</v>
       </c>
       <c r="T8">
-        <v>0.01020144568785711</v>
+        <v>0.02731304265727316</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.178818577498269</v>
+        <v>0.3534583333333334</v>
       </c>
       <c r="H9">
-        <v>0.178818577498269</v>
+        <v>1.060375</v>
       </c>
       <c r="I9">
-        <v>0.1580664164148145</v>
+        <v>0.2087477693050469</v>
       </c>
       <c r="J9">
-        <v>0.1580664164148145</v>
+        <v>0.2087477693050469</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>26.2704820827443</v>
+        <v>26.60585</v>
       </c>
       <c r="N9">
-        <v>26.2704820827443</v>
+        <v>79.81755000000001</v>
       </c>
       <c r="O9">
-        <v>0.1972176046216286</v>
+        <v>0.1797412673170669</v>
       </c>
       <c r="P9">
-        <v>0.1972176046216286</v>
+        <v>0.1797412673170669</v>
       </c>
       <c r="Q9">
-        <v>4.697650236230099</v>
+        <v>9.404059397916669</v>
       </c>
       <c r="R9">
-        <v>4.697650236230099</v>
+        <v>84.63653458125002</v>
       </c>
       <c r="S9">
-        <v>0.03117348001645459</v>
+        <v>0.03752058860449985</v>
       </c>
       <c r="T9">
-        <v>0.03117348001645459</v>
+        <v>0.03752058860449985</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.178818577498269</v>
+        <v>0.3534583333333334</v>
       </c>
       <c r="H10">
-        <v>0.178818577498269</v>
+        <v>1.060375</v>
       </c>
       <c r="I10">
-        <v>0.1580664164148145</v>
+        <v>0.2087477693050469</v>
       </c>
       <c r="J10">
-        <v>0.1580664164148145</v>
+        <v>0.2087477693050469</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.52039207512</v>
+        <v>25.27238933333333</v>
       </c>
       <c r="N10">
-        <v>23.52039207512</v>
+        <v>75.817168</v>
       </c>
       <c r="O10">
-        <v>0.1765721455056045</v>
+        <v>0.1707328007526035</v>
       </c>
       <c r="P10">
-        <v>0.1765721455056045</v>
+        <v>0.1707328007526035</v>
       </c>
       <c r="Q10">
-        <v>4.205883053074517</v>
+        <v>8.932736613111112</v>
       </c>
       <c r="R10">
-        <v>4.205883053074517</v>
+        <v>80.394629518</v>
       </c>
       <c r="S10">
-        <v>0.0279101262787461</v>
+        <v>0.03564009130430901</v>
       </c>
       <c r="T10">
-        <v>0.0279101262787461</v>
+        <v>0.03564009130430902</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.178818577498269</v>
+        <v>0.3534583333333334</v>
       </c>
       <c r="H11">
-        <v>0.178818577498269</v>
+        <v>1.060375</v>
       </c>
       <c r="I11">
-        <v>0.1580664164148145</v>
+        <v>0.2087477693050469</v>
       </c>
       <c r="J11">
-        <v>0.1580664164148145</v>
+        <v>0.2087477693050469</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>36.4379275743489</v>
+        <v>36.48521533333334</v>
       </c>
       <c r="N11">
-        <v>36.4379275743489</v>
+        <v>109.455646</v>
       </c>
       <c r="O11">
-        <v>0.2735465900836939</v>
+        <v>0.2464833426614604</v>
       </c>
       <c r="P11">
-        <v>0.2735465900836939</v>
+        <v>0.2464833426614603</v>
       </c>
       <c r="Q11">
-        <v>6.515778375830021</v>
+        <v>12.89600340302778</v>
       </c>
       <c r="R11">
-        <v>6.515778375830021</v>
+        <v>116.06403062725</v>
       </c>
       <c r="S11">
-        <v>0.04323852921702172</v>
+        <v>0.05145284795143135</v>
       </c>
       <c r="T11">
-        <v>0.04323852921702172</v>
+        <v>0.05145284795143135</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.178818577498269</v>
+        <v>0.3534583333333334</v>
       </c>
       <c r="H12">
-        <v>0.178818577498269</v>
+        <v>1.060375</v>
       </c>
       <c r="I12">
-        <v>0.1580664164148145</v>
+        <v>0.2087477693050469</v>
       </c>
       <c r="J12">
-        <v>0.1580664164148145</v>
+        <v>0.2087477693050469</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>28.9585582898079</v>
+        <v>29.48431666666667</v>
       </c>
       <c r="N12">
-        <v>28.9585582898079</v>
+        <v>88.45295</v>
       </c>
       <c r="O12">
-        <v>0.2173975141081657</v>
+        <v>0.1991873382599836</v>
       </c>
       <c r="P12">
-        <v>0.2173975141081657</v>
+        <v>0.1991873382599836</v>
       </c>
       <c r="Q12">
-        <v>5.178328199784154</v>
+        <v>10.42147742847222</v>
       </c>
       <c r="R12">
-        <v>5.178328199784154</v>
+        <v>93.79329685625001</v>
       </c>
       <c r="S12">
-        <v>0.03436324599256683</v>
+        <v>0.04157991253558139</v>
       </c>
       <c r="T12">
-        <v>0.03436324599256683</v>
+        <v>0.0415799125355814</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.178818577498269</v>
+        <v>0.3534583333333334</v>
       </c>
       <c r="H13">
-        <v>0.178818577498269</v>
+        <v>1.060375</v>
       </c>
       <c r="I13">
-        <v>0.1580664164148145</v>
+        <v>0.2087477693050469</v>
       </c>
       <c r="J13">
-        <v>0.1580664164148145</v>
+        <v>0.2087477693050469</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.421251595856051</v>
+        <v>10.80759633333333</v>
       </c>
       <c r="N13">
-        <v>9.421251595856051</v>
+        <v>32.422789</v>
       </c>
       <c r="O13">
-        <v>0.07072716314912518</v>
+        <v>0.07301292992347995</v>
       </c>
       <c r="P13">
-        <v>0.07072716314912518</v>
+        <v>0.07301292992347994</v>
       </c>
       <c r="Q13">
-        <v>1.684694808624275</v>
+        <v>3.820034987319445</v>
       </c>
       <c r="R13">
-        <v>1.684694808624275</v>
+        <v>34.380314885875</v>
       </c>
       <c r="S13">
-        <v>0.01117958922216814</v>
+        <v>0.01524128625195215</v>
       </c>
       <c r="T13">
-        <v>0.01117958922216814</v>
+        <v>0.01524128625195215</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.170276258149697</v>
+        <v>0.2062163333333333</v>
       </c>
       <c r="H14">
-        <v>0.170276258149697</v>
+        <v>0.618649</v>
       </c>
       <c r="I14">
-        <v>0.150515445893797</v>
+        <v>0.1217886113241051</v>
       </c>
       <c r="J14">
-        <v>0.150515445893797</v>
+        <v>0.1217886113241051</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.596951511973639</v>
+        <v>19.367679</v>
       </c>
       <c r="N14">
-        <v>8.596951511973639</v>
+        <v>58.10303699999999</v>
       </c>
       <c r="O14">
-        <v>0.06453898253178211</v>
+        <v>0.1308423210854057</v>
       </c>
       <c r="P14">
-        <v>0.06453898253178211</v>
+        <v>0.1308423210854057</v>
       </c>
       <c r="Q14">
-        <v>1.463856734953251</v>
+        <v>3.993931748557</v>
       </c>
       <c r="R14">
-        <v>1.463856734953251</v>
+        <v>35.945385737013</v>
       </c>
       <c r="S14">
-        <v>0.009714113733303163</v>
+        <v>0.01593510458741424</v>
       </c>
       <c r="T14">
-        <v>0.009714113733303163</v>
+        <v>0.01593510458741424</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.170276258149697</v>
+        <v>0.2062163333333333</v>
       </c>
       <c r="H15">
-        <v>0.170276258149697</v>
+        <v>0.618649</v>
       </c>
       <c r="I15">
-        <v>0.150515445893797</v>
+        <v>0.1217886113241051</v>
       </c>
       <c r="J15">
-        <v>0.150515445893797</v>
+        <v>0.1217886113241051</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>26.2704820827443</v>
+        <v>26.60585</v>
       </c>
       <c r="N15">
-        <v>26.2704820827443</v>
+        <v>79.81755000000001</v>
       </c>
       <c r="O15">
-        <v>0.1972176046216286</v>
+        <v>0.1797412673170669</v>
       </c>
       <c r="P15">
-        <v>0.1972176046216286</v>
+        <v>0.1797412673170669</v>
       </c>
       <c r="Q15">
-        <v>4.473239388838358</v>
+        <v>5.486560832216668</v>
       </c>
       <c r="R15">
-        <v>4.473239388838358</v>
+        <v>49.37904748995</v>
       </c>
       <c r="S15">
-        <v>0.02968429569773099</v>
+        <v>0.02189043934418033</v>
       </c>
       <c r="T15">
-        <v>0.02968429569773099</v>
+        <v>0.02189043934418034</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.170276258149697</v>
+        <v>0.2062163333333333</v>
       </c>
       <c r="H16">
-        <v>0.170276258149697</v>
+        <v>0.618649</v>
       </c>
       <c r="I16">
-        <v>0.150515445893797</v>
+        <v>0.1217886113241051</v>
       </c>
       <c r="J16">
-        <v>0.150515445893797</v>
+        <v>0.1217886113241051</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>23.52039207512</v>
+        <v>25.27238933333333</v>
       </c>
       <c r="N16">
-        <v>23.52039207512</v>
+        <v>75.817168</v>
       </c>
       <c r="O16">
-        <v>0.1765721455056045</v>
+        <v>0.1707328007526035</v>
       </c>
       <c r="P16">
-        <v>0.1765721455056045</v>
+        <v>0.1707328007526035</v>
       </c>
       <c r="Q16">
-        <v>4.004964352765221</v>
+        <v>5.211579462892445</v>
       </c>
       <c r="R16">
-        <v>4.004964352765221</v>
+        <v>46.904215166032</v>
       </c>
       <c r="S16">
-        <v>0.02657683521320047</v>
+        <v>0.02079331071113471</v>
       </c>
       <c r="T16">
-        <v>0.02657683521320047</v>
+        <v>0.02079331071113471</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.170276258149697</v>
+        <v>0.2062163333333333</v>
       </c>
       <c r="H17">
-        <v>0.170276258149697</v>
+        <v>0.618649</v>
       </c>
       <c r="I17">
-        <v>0.150515445893797</v>
+        <v>0.1217886113241051</v>
       </c>
       <c r="J17">
-        <v>0.150515445893797</v>
+        <v>0.1217886113241051</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>36.4379275743489</v>
+        <v>36.48521533333334</v>
       </c>
       <c r="N17">
-        <v>36.4379275743489</v>
+        <v>109.455646</v>
       </c>
       <c r="O17">
-        <v>0.2735465900836939</v>
+        <v>0.2464833426614604</v>
       </c>
       <c r="P17">
-        <v>0.2735465900836939</v>
+        <v>0.2464833426614603</v>
       </c>
       <c r="Q17">
-        <v>6.204513962089795</v>
+        <v>7.523847326917112</v>
       </c>
       <c r="R17">
-        <v>6.204513962089795</v>
+        <v>67.714625942254</v>
       </c>
       <c r="S17">
-        <v>0.0411729869791749</v>
+        <v>0.03001886401726281</v>
       </c>
       <c r="T17">
-        <v>0.0411729869791749</v>
+        <v>0.03001886401726281</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.170276258149697</v>
+        <v>0.2062163333333333</v>
       </c>
       <c r="H18">
-        <v>0.170276258149697</v>
+        <v>0.618649</v>
       </c>
       <c r="I18">
-        <v>0.150515445893797</v>
+        <v>0.1217886113241051</v>
       </c>
       <c r="J18">
-        <v>0.150515445893797</v>
+        <v>0.1217886113241051</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>28.9585582898079</v>
+        <v>29.48431666666667</v>
       </c>
       <c r="N18">
-        <v>28.9585582898079</v>
+        <v>88.45295</v>
       </c>
       <c r="O18">
-        <v>0.2173975141081657</v>
+        <v>0.1991873382599836</v>
       </c>
       <c r="P18">
-        <v>0.2173975141081657</v>
+        <v>0.1991873382599836</v>
       </c>
       <c r="Q18">
-        <v>4.930954946998378</v>
+        <v>6.080147673838889</v>
       </c>
       <c r="R18">
-        <v>4.930954946998378</v>
+        <v>54.72132906455</v>
       </c>
       <c r="S18">
-        <v>0.0327216837721936</v>
+        <v>0.02425874932002819</v>
       </c>
       <c r="T18">
-        <v>0.0327216837721936</v>
+        <v>0.02425874932002819</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.170276258149697</v>
+        <v>0.2062163333333333</v>
       </c>
       <c r="H19">
-        <v>0.170276258149697</v>
+        <v>0.618649</v>
       </c>
       <c r="I19">
-        <v>0.150515445893797</v>
+        <v>0.1217886113241051</v>
       </c>
       <c r="J19">
-        <v>0.150515445893797</v>
+        <v>0.1217886113241051</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>9.421251595856051</v>
+        <v>10.80759633333333</v>
       </c>
       <c r="N19">
-        <v>9.421251595856051</v>
+        <v>32.422789</v>
       </c>
       <c r="O19">
-        <v>0.07072716314912518</v>
+        <v>0.07301292992347995</v>
       </c>
       <c r="P19">
-        <v>0.07072716314912518</v>
+        <v>0.07301292992347994</v>
       </c>
       <c r="Q19">
-        <v>1.60421546882923</v>
+        <v>2.228702888006778</v>
       </c>
       <c r="R19">
-        <v>1.60421546882923</v>
+        <v>20.058325992061</v>
       </c>
       <c r="S19">
-        <v>0.01064553049819391</v>
+        <v>0.008892143344084821</v>
       </c>
       <c r="T19">
-        <v>0.01064553049819391</v>
+        <v>0.008892143344084821</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.45619179945392</v>
+        <v>0.186068</v>
       </c>
       <c r="H20">
-        <v>0.45619179945392</v>
+        <v>0.5582039999999999</v>
       </c>
       <c r="I20">
-        <v>0.4032500646539642</v>
+        <v>0.1098892748481946</v>
       </c>
       <c r="J20">
-        <v>0.4032500646539642</v>
+        <v>0.1098892748481946</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.596951511973639</v>
+        <v>19.367679</v>
       </c>
       <c r="N20">
-        <v>8.596951511973639</v>
+        <v>58.10303699999999</v>
       </c>
       <c r="O20">
-        <v>0.06453898253178211</v>
+        <v>0.1308423210854057</v>
       </c>
       <c r="P20">
-        <v>0.06453898253178211</v>
+        <v>0.1308423210854057</v>
       </c>
       <c r="Q20">
-        <v>3.921858780065353</v>
+        <v>3.603705296172</v>
       </c>
       <c r="R20">
-        <v>3.921858780065353</v>
+        <v>32.43334766554799</v>
       </c>
       <c r="S20">
-        <v>0.0260253488786422</v>
+        <v>0.01437816778352988</v>
       </c>
       <c r="T20">
-        <v>0.0260253488786422</v>
+        <v>0.01437816778352988</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.45619179945392</v>
+        <v>0.186068</v>
       </c>
       <c r="H21">
-        <v>0.45619179945392</v>
+        <v>0.5582039999999999</v>
       </c>
       <c r="I21">
-        <v>0.4032500646539642</v>
+        <v>0.1098892748481946</v>
       </c>
       <c r="J21">
-        <v>0.4032500646539642</v>
+        <v>0.1098892748481946</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>26.2704820827443</v>
+        <v>26.60585</v>
       </c>
       <c r="N21">
-        <v>26.2704820827443</v>
+        <v>79.81755000000001</v>
       </c>
       <c r="O21">
-        <v>0.1972176046216286</v>
+        <v>0.1797412673170669</v>
       </c>
       <c r="P21">
-        <v>0.1972176046216286</v>
+        <v>0.1797412673170669</v>
       </c>
       <c r="Q21">
-        <v>11.98437849384909</v>
+        <v>4.9504972978</v>
       </c>
       <c r="R21">
-        <v>11.98437849384909</v>
+        <v>44.5544756802</v>
       </c>
       <c r="S21">
-        <v>0.07952801181457168</v>
+        <v>0.01975163752576799</v>
       </c>
       <c r="T21">
-        <v>0.07952801181457168</v>
+        <v>0.01975163752576799</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.45619179945392</v>
+        <v>0.186068</v>
       </c>
       <c r="H22">
-        <v>0.45619179945392</v>
+        <v>0.5582039999999999</v>
       </c>
       <c r="I22">
-        <v>0.4032500646539642</v>
+        <v>0.1098892748481946</v>
       </c>
       <c r="J22">
-        <v>0.4032500646539642</v>
+        <v>0.1098892748481946</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>23.52039207512</v>
+        <v>25.27238933333333</v>
       </c>
       <c r="N22">
-        <v>23.52039207512</v>
+        <v>75.817168</v>
       </c>
       <c r="O22">
-        <v>0.1765721455056045</v>
+        <v>0.1707328007526035</v>
       </c>
       <c r="P22">
-        <v>0.1765721455056045</v>
+        <v>0.1707328007526035</v>
       </c>
       <c r="Q22">
-        <v>10.72980998461071</v>
+        <v>4.702382938474666</v>
       </c>
       <c r="R22">
-        <v>10.72980998461071</v>
+        <v>42.32144644627199</v>
       </c>
       <c r="S22">
-        <v>0.07120272909122419</v>
+        <v>0.0187617036675049</v>
       </c>
       <c r="T22">
-        <v>0.07120272909122419</v>
+        <v>0.0187617036675049</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.45619179945392</v>
+        <v>0.186068</v>
       </c>
       <c r="H23">
-        <v>0.45619179945392</v>
+        <v>0.5582039999999999</v>
       </c>
       <c r="I23">
-        <v>0.4032500646539642</v>
+        <v>0.1098892748481946</v>
       </c>
       <c r="J23">
-        <v>0.4032500646539642</v>
+        <v>0.1098892748481946</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>36.4379275743489</v>
+        <v>36.48521533333334</v>
       </c>
       <c r="N23">
-        <v>36.4379275743489</v>
+        <v>109.455646</v>
       </c>
       <c r="O23">
-        <v>0.2735465900836939</v>
+        <v>0.2464833426614604</v>
       </c>
       <c r="P23">
-        <v>0.2735465900836939</v>
+        <v>0.2464833426614603</v>
       </c>
       <c r="Q23">
-        <v>16.62268374851384</v>
+        <v>6.788731046642667</v>
       </c>
       <c r="R23">
-        <v>16.62268374851384</v>
+        <v>61.098579419784</v>
       </c>
       <c r="S23">
-        <v>0.110307680137121</v>
+        <v>0.02708587578722695</v>
       </c>
       <c r="T23">
-        <v>0.110307680137121</v>
+        <v>0.02708587578722695</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.45619179945392</v>
+        <v>0.186068</v>
       </c>
       <c r="H24">
-        <v>0.45619179945392</v>
+        <v>0.5582039999999999</v>
       </c>
       <c r="I24">
-        <v>0.4032500646539642</v>
+        <v>0.1098892748481946</v>
       </c>
       <c r="J24">
-        <v>0.4032500646539642</v>
+        <v>0.1098892748481946</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>28.9585582898079</v>
+        <v>29.48431666666667</v>
       </c>
       <c r="N24">
-        <v>28.9585582898079</v>
+        <v>88.45295</v>
       </c>
       <c r="O24">
-        <v>0.2173975141081657</v>
+        <v>0.1991873382599836</v>
       </c>
       <c r="P24">
-        <v>0.2173975141081657</v>
+        <v>0.1991873382599836</v>
       </c>
       <c r="Q24">
-        <v>13.2106568158187</v>
+        <v>5.486087833533333</v>
       </c>
       <c r="R24">
-        <v>13.2106568158187</v>
+        <v>49.37479050179999</v>
       </c>
       <c r="S24">
-        <v>0.08766556161972892</v>
+        <v>0.02188855216033165</v>
       </c>
       <c r="T24">
-        <v>0.08766556161972892</v>
+        <v>0.02188855216033165</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.186068</v>
+      </c>
+      <c r="H25">
+        <v>0.5582039999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.1098892748481946</v>
+      </c>
+      <c r="J25">
+        <v>0.1098892748481946</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>10.80759633333333</v>
+      </c>
+      <c r="N25">
+        <v>32.422789</v>
+      </c>
+      <c r="O25">
+        <v>0.07301292992347995</v>
+      </c>
+      <c r="P25">
+        <v>0.07301292992347994</v>
+      </c>
+      <c r="Q25">
+        <v>2.010947834550667</v>
+      </c>
+      <c r="R25">
+        <v>18.098530510956</v>
+      </c>
+      <c r="S25">
+        <v>0.008023337923833262</v>
+      </c>
+      <c r="T25">
+        <v>0.008023337923833262</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.195893</v>
+      </c>
+      <c r="H26">
+        <v>0.5876790000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.1156917885817948</v>
+      </c>
+      <c r="J26">
+        <v>0.1156917885817948</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>19.367679</v>
+      </c>
+      <c r="N26">
+        <v>58.10303699999999</v>
+      </c>
+      <c r="O26">
+        <v>0.1308423210854057</v>
+      </c>
+      <c r="P26">
+        <v>0.1308423210854057</v>
+      </c>
+      <c r="Q26">
+        <v>3.793992742347</v>
+      </c>
+      <c r="R26">
+        <v>34.145934681123</v>
+      </c>
+      <c r="S26">
+        <v>0.01513738214856407</v>
+      </c>
+      <c r="T26">
+        <v>0.01513738214856408</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.195893</v>
+      </c>
+      <c r="H27">
+        <v>0.5876790000000001</v>
+      </c>
+      <c r="I27">
+        <v>0.1156917885817948</v>
+      </c>
+      <c r="J27">
+        <v>0.1156917885817948</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>26.60585</v>
+      </c>
+      <c r="N27">
+        <v>79.81755000000001</v>
+      </c>
+      <c r="O27">
+        <v>0.1797412673170669</v>
+      </c>
+      <c r="P27">
+        <v>0.1797412673170669</v>
+      </c>
+      <c r="Q27">
+        <v>5.211899774050001</v>
+      </c>
+      <c r="R27">
+        <v>46.90709796645001</v>
+      </c>
+      <c r="S27">
+        <v>0.02079458869786997</v>
+      </c>
+      <c r="T27">
+        <v>0.02079458869786997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.195893</v>
+      </c>
+      <c r="H28">
+        <v>0.5876790000000001</v>
+      </c>
+      <c r="I28">
+        <v>0.1156917885817948</v>
+      </c>
+      <c r="J28">
+        <v>0.1156917885817948</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>25.27238933333333</v>
+      </c>
+      <c r="N28">
+        <v>75.817168</v>
+      </c>
+      <c r="O28">
+        <v>0.1707328007526035</v>
+      </c>
+      <c r="P28">
+        <v>0.1707328007526035</v>
+      </c>
+      <c r="Q28">
+        <v>4.950684163674667</v>
+      </c>
+      <c r="R28">
+        <v>44.55615747307201</v>
+      </c>
+      <c r="S28">
+        <v>0.0197523830886479</v>
+      </c>
+      <c r="T28">
+        <v>0.0197523830886479</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.195893</v>
+      </c>
+      <c r="H29">
+        <v>0.5876790000000001</v>
+      </c>
+      <c r="I29">
+        <v>0.1156917885817948</v>
+      </c>
+      <c r="J29">
+        <v>0.1156917885817948</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>36.48521533333334</v>
+      </c>
+      <c r="N29">
+        <v>109.455646</v>
+      </c>
+      <c r="O29">
+        <v>0.2464833426614604</v>
+      </c>
+      <c r="P29">
+        <v>0.2464833426614603</v>
+      </c>
+      <c r="Q29">
+        <v>7.147198287292667</v>
+      </c>
+      <c r="R29">
+        <v>64.32478458563401</v>
+      </c>
+      <c r="S29">
+        <v>0.02851609876812375</v>
+      </c>
+      <c r="T29">
+        <v>0.02851609876812375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.195893</v>
+      </c>
+      <c r="H30">
+        <v>0.5876790000000001</v>
+      </c>
+      <c r="I30">
+        <v>0.1156917885817948</v>
+      </c>
+      <c r="J30">
+        <v>0.1156917885817948</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>29.48431666666667</v>
+      </c>
+      <c r="N30">
+        <v>88.45295</v>
+      </c>
+      <c r="O30">
+        <v>0.1991873382599836</v>
+      </c>
+      <c r="P30">
+        <v>0.1991873382599836</v>
+      </c>
+      <c r="Q30">
+        <v>5.775771244783334</v>
+      </c>
+      <c r="R30">
+        <v>51.98194120305001</v>
+      </c>
+      <c r="S30">
+        <v>0.02304433942614446</v>
+      </c>
+      <c r="T30">
+        <v>0.02304433942614447</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.195893</v>
+      </c>
+      <c r="H31">
+        <v>0.5876790000000001</v>
+      </c>
+      <c r="I31">
+        <v>0.1156917885817948</v>
+      </c>
+      <c r="J31">
+        <v>0.1156917885817948</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>10.80759633333333</v>
+      </c>
+      <c r="N31">
+        <v>32.422789</v>
+      </c>
+      <c r="O31">
+        <v>0.07301292992347995</v>
+      </c>
+      <c r="P31">
+        <v>0.07301292992347994</v>
+      </c>
+      <c r="Q31">
+        <v>2.117132468525667</v>
+      </c>
+      <c r="R31">
+        <v>19.054192216731</v>
+      </c>
+      <c r="S31">
+        <v>0.008446996452444641</v>
+      </c>
+      <c r="T31">
+        <v>0.008446996452444641</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.5350026666666666</v>
+      </c>
+      <c r="H32">
+        <v>1.605008</v>
+      </c>
+      <c r="I32">
+        <v>0.3159654270581206</v>
+      </c>
+      <c r="J32">
+        <v>0.3159654270581206</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>19.367679</v>
+      </c>
+      <c r="N32">
+        <v>58.10303699999999</v>
+      </c>
+      <c r="O32">
+        <v>0.1308423210854057</v>
+      </c>
+      <c r="P32">
+        <v>0.1308423210854057</v>
+      </c>
+      <c r="Q32">
+        <v>10.361759912144</v>
+      </c>
+      <c r="R32">
+        <v>93.25583920929597</v>
+      </c>
+      <c r="S32">
+        <v>0.04134164985902596</v>
+      </c>
+      <c r="T32">
+        <v>0.04134164985902597</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.5350026666666666</v>
+      </c>
+      <c r="H33">
+        <v>1.605008</v>
+      </c>
+      <c r="I33">
+        <v>0.3159654270581206</v>
+      </c>
+      <c r="J33">
+        <v>0.3159654270581206</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>26.60585</v>
+      </c>
+      <c r="N33">
+        <v>79.81755000000001</v>
+      </c>
+      <c r="O33">
+        <v>0.1797412673170669</v>
+      </c>
+      <c r="P33">
+        <v>0.1797412673170669</v>
+      </c>
+      <c r="Q33">
+        <v>14.23420069893333</v>
+      </c>
+      <c r="R33">
+        <v>128.1078062904</v>
+      </c>
+      <c r="S33">
+        <v>0.05679202628780486</v>
+      </c>
+      <c r="T33">
+        <v>0.05679202628780487</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.5350026666666666</v>
+      </c>
+      <c r="H34">
+        <v>1.605008</v>
+      </c>
+      <c r="I34">
+        <v>0.3159654270581206</v>
+      </c>
+      <c r="J34">
+        <v>0.3159654270581206</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>25.27238933333333</v>
+      </c>
+      <c r="N34">
+        <v>75.817168</v>
+      </c>
+      <c r="O34">
+        <v>0.1707328007526035</v>
+      </c>
+      <c r="P34">
+        <v>0.1707328007526035</v>
+      </c>
+      <c r="Q34">
+        <v>13.52079568637155</v>
+      </c>
+      <c r="R34">
+        <v>121.687161177344</v>
+      </c>
+      <c r="S34">
+        <v>0.05394566230262538</v>
+      </c>
+      <c r="T34">
+        <v>0.0539456623026254</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.45619179945392</v>
-      </c>
-      <c r="H25">
-        <v>0.45619179945392</v>
-      </c>
-      <c r="I25">
-        <v>0.4032500646539642</v>
-      </c>
-      <c r="J25">
-        <v>0.4032500646539642</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>9.421251595856051</v>
-      </c>
-      <c r="N25">
-        <v>9.421251595856051</v>
-      </c>
-      <c r="O25">
-        <v>0.07072716314912518</v>
-      </c>
-      <c r="P25">
-        <v>0.07072716314912518</v>
-      </c>
-      <c r="Q25">
-        <v>4.297897718621687</v>
-      </c>
-      <c r="R25">
-        <v>4.297897718621687</v>
-      </c>
-      <c r="S25">
-        <v>0.0285207331126762</v>
-      </c>
-      <c r="T25">
-        <v>0.0285207331126762</v>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.5350026666666666</v>
+      </c>
+      <c r="H35">
+        <v>1.605008</v>
+      </c>
+      <c r="I35">
+        <v>0.3159654270581206</v>
+      </c>
+      <c r="J35">
+        <v>0.3159654270581206</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>36.48521533333334</v>
+      </c>
+      <c r="N35">
+        <v>109.455646</v>
+      </c>
+      <c r="O35">
+        <v>0.2464833426614604</v>
+      </c>
+      <c r="P35">
+        <v>0.2464833426614603</v>
+      </c>
+      <c r="Q35">
+        <v>19.51968749724089</v>
+      </c>
+      <c r="R35">
+        <v>175.677187475168</v>
+      </c>
+      <c r="S35">
+        <v>0.0778802146267414</v>
+      </c>
+      <c r="T35">
+        <v>0.0778802146267414</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.5350026666666666</v>
+      </c>
+      <c r="H36">
+        <v>1.605008</v>
+      </c>
+      <c r="I36">
+        <v>0.3159654270581206</v>
+      </c>
+      <c r="J36">
+        <v>0.3159654270581206</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>29.48431666666667</v>
+      </c>
+      <c r="N36">
+        <v>88.45295</v>
+      </c>
+      <c r="O36">
+        <v>0.1991873382599836</v>
+      </c>
+      <c r="P36">
+        <v>0.1991873382599836</v>
+      </c>
+      <c r="Q36">
+        <v>15.77418804151111</v>
+      </c>
+      <c r="R36">
+        <v>141.9676923736</v>
+      </c>
+      <c r="S36">
+        <v>0.06293631239788604</v>
+      </c>
+      <c r="T36">
+        <v>0.06293631239788605</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.5350026666666666</v>
+      </c>
+      <c r="H37">
+        <v>1.605008</v>
+      </c>
+      <c r="I37">
+        <v>0.3159654270581206</v>
+      </c>
+      <c r="J37">
+        <v>0.3159654270581206</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>10.80759633333333</v>
+      </c>
+      <c r="N37">
+        <v>32.422789</v>
+      </c>
+      <c r="O37">
+        <v>0.07301292992347995</v>
+      </c>
+      <c r="P37">
+        <v>0.07301292992347994</v>
+      </c>
+      <c r="Q37">
+        <v>5.782092858590222</v>
+      </c>
+      <c r="R37">
+        <v>52.038835727312</v>
+      </c>
+      <c r="S37">
+        <v>0.02306956158403697</v>
+      </c>
+      <c r="T37">
+        <v>0.02306956158403697</v>
       </c>
     </row>
   </sheetData>
